--- a/BackEnd/src/Book1.xlsx
+++ b/BackEnd/src/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BackEnd\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44713A60-C65A-4296-A295-FEB4F7D035E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD60EE35-E513-4675-A9E1-4C0D4B8D88F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1332" windowWidth="21000" windowHeight="10572" activeTab="1" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
+    <workbookView xWindow="660" yWindow="1332" windowWidth="21000" windowHeight="10572" activeTab="2" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ngành" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="287">
   <si>
     <t>Công nghệ thông tin</t>
   </si>
@@ -853,6 +853,54 @@
   </si>
   <si>
     <t>group_id</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>Công nghệ kỹ thuật xây dựng</t>
+  </si>
+  <si>
+    <t>Công nghệ kỹ thuật cơ điện tử</t>
+  </si>
+  <si>
+    <t>CN6</t>
+  </si>
+  <si>
+    <t>CN9</t>
+  </si>
+  <si>
+    <t>Công nghệ kỹ thuật điện tử – viễn thông</t>
+  </si>
+  <si>
+    <t>Công nghệ nông nghiệp</t>
+  </si>
+  <si>
+    <t>CN10</t>
+  </si>
+  <si>
+    <t>Kỹ thuật điều khiển và tự động hóa</t>
+  </si>
+  <si>
+    <t>CN11</t>
+  </si>
+  <si>
+    <t>Kỹ thuật năng lượng</t>
+  </si>
+  <si>
+    <t>CN13</t>
+  </si>
+  <si>
+    <t>Thiết kế công nghiệp và đồ họa</t>
+  </si>
+  <si>
+    <t>CN18</t>
+  </si>
+  <si>
+    <t>CN17</t>
+  </si>
+  <si>
+    <t>Kỹ thuật Robot</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDC965C-E5ED-4A6E-8BE3-35CB90B5606C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1370,6 +1418,70 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1379,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7E6017-104F-43D7-803B-7E6A869158EA}">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
@@ -2676,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2392CF-EBEA-424A-B0A7-A96DBE8241EA}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3548,7 +3660,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/BackEnd/src/Book1.xlsx
+++ b/BackEnd/src/Book1.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BackEnd\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD60EE35-E513-4675-A9E1-4C0D4B8D88F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6344374D-E8AC-45C6-A4C9-CC46516C829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1332" windowWidth="21000" windowHeight="10572" activeTab="2" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ngành" sheetId="1" r:id="rId1"/>
     <sheet name="Môn" sheetId="2" r:id="rId2"/>
     <sheet name="Kỹ thuật máy tính" sheetId="3" r:id="rId3"/>
     <sheet name="Khối môn" sheetId="4" r:id="rId4"/>
-    <sheet name="Student" sheetId="5" r:id="rId5"/>
+    <sheet name="Students" sheetId="7" r:id="rId5"/>
+    <sheet name="Semester" sheetId="9" r:id="rId6"/>
+    <sheet name="Registration" sheetId="8" r:id="rId7"/>
+    <sheet name="Lịch thi" sheetId="10" r:id="rId8"/>
+    <sheet name="Lịch học" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="506">
   <si>
     <t>Công nghệ thông tin</t>
   </si>
@@ -825,89 +829,1874 @@
     <t>TC</t>
   </si>
   <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>Công nghệ kỹ thuật xây dựng</t>
+  </si>
+  <si>
+    <t>Công nghệ kỹ thuật cơ điện tử</t>
+  </si>
+  <si>
+    <t>CN6</t>
+  </si>
+  <si>
+    <t>CN9</t>
+  </si>
+  <si>
+    <t>Công nghệ kỹ thuật điện tử – viễn thông</t>
+  </si>
+  <si>
+    <t>Công nghệ nông nghiệp</t>
+  </si>
+  <si>
+    <t>CN10</t>
+  </si>
+  <si>
+    <t>Kỹ thuật điều khiển và tự động hóa</t>
+  </si>
+  <si>
+    <t>CN11</t>
+  </si>
+  <si>
+    <t>Kỹ thuật năng lượng</t>
+  </si>
+  <si>
+    <t>CN13</t>
+  </si>
+  <si>
+    <t>Thiết kế công nghiệp và đồ họa</t>
+  </si>
+  <si>
+    <t>CN18</t>
+  </si>
+  <si>
+    <t>CN17</t>
+  </si>
+  <si>
+    <t>Kỹ thuật Robot</t>
+  </si>
+  <si>
     <t>MSSV</t>
   </si>
   <si>
     <t>Họ và Tên</t>
   </si>
   <si>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>Phí Mạnh Hùng</t>
+  </si>
+  <si>
+    <t>QH-2020-I/CQ-K</t>
+  </si>
+  <si>
     <t>Nguyễn Quang Anh</t>
   </si>
   <si>
-    <t>Phí Mạnh Hùng</t>
-  </si>
-  <si>
     <t>Nguyễn Khắc Kiên</t>
   </si>
   <si>
+    <t>Vũ Thành Lộc</t>
+  </si>
+  <si>
     <t>Nguyễn Văn Quyền</t>
   </si>
   <si>
-    <t>Vũ Thành Lộc</t>
-  </si>
-  <si>
-    <t>Lớp</t>
-  </si>
-  <si>
-    <t>QH-2020-I/CQ-K</t>
-  </si>
-  <si>
-    <t>group_id</t>
-  </si>
-  <si>
-    <t>CN5</t>
-  </si>
-  <si>
-    <t>Công nghệ kỹ thuật xây dựng</t>
-  </si>
-  <si>
-    <t>Công nghệ kỹ thuật cơ điện tử</t>
-  </si>
-  <si>
-    <t>CN6</t>
-  </si>
-  <si>
-    <t>CN9</t>
-  </si>
-  <si>
-    <t>Công nghệ kỹ thuật điện tử – viễn thông</t>
-  </si>
-  <si>
-    <t>Công nghệ nông nghiệp</t>
-  </si>
-  <si>
-    <t>CN10</t>
-  </si>
-  <si>
-    <t>Kỹ thuật điều khiển và tự động hóa</t>
-  </si>
-  <si>
-    <t>CN11</t>
-  </si>
-  <si>
-    <t>Kỹ thuật năng lượng</t>
-  </si>
-  <si>
-    <t>CN13</t>
-  </si>
-  <si>
-    <t>Thiết kế công nghiệp và đồ họa</t>
-  </si>
-  <si>
-    <t>CN18</t>
-  </si>
-  <si>
-    <t>CN17</t>
-  </si>
-  <si>
-    <t>Kỹ thuật Robot</t>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>29/11/2002</t>
+  </si>
+  <si>
+    <t>19/1/2001</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ELT3241 2</t>
+  </si>
+  <si>
+    <t>ĐK lần đầu</t>
+  </si>
+  <si>
+    <t>INT3405 2</t>
+  </si>
+  <si>
+    <t>ELT 3051 1</t>
+  </si>
+  <si>
+    <t>Học cải thiện</t>
+  </si>
+  <si>
+    <t>ELT3231 1</t>
+  </si>
+  <si>
+    <t>Kỹ thuật xử lý và truyền thông đa phương tiện</t>
+  </si>
+  <si>
+    <t>INT3217 1</t>
+  </si>
+  <si>
+    <t>Học lại</t>
+  </si>
+  <si>
+    <t>MAT1101 1</t>
+  </si>
+  <si>
+    <t>ELT3144 1</t>
+  </si>
+  <si>
+    <t>Lớp khóa học</t>
+  </si>
+  <si>
+    <t>Mã LMH</t>
+  </si>
+  <si>
+    <t>nhóm</t>
+  </si>
+  <si>
+    <t>Nhóm</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>ELT3241 1</t>
+  </si>
+  <si>
+    <t>INT2204 1</t>
+  </si>
+  <si>
+    <t>ELT3206 1</t>
+  </si>
+  <si>
+    <t>ELT3203 1</t>
+  </si>
+  <si>
+    <t>POL1001 1</t>
+  </si>
+  <si>
+    <t>HIS1001 2</t>
+  </si>
+  <si>
+    <t>PHI1002 1</t>
+  </si>
+  <si>
+    <t>UET1002 2</t>
+  </si>
+  <si>
+    <t>Kỹ năng khởi nghiệp</t>
+  </si>
+  <si>
+    <t>ELT 3051 2</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>tên</t>
+  </si>
+  <si>
+    <t>K2_2023-2024</t>
+  </si>
+  <si>
+    <t>K1_2023-2024</t>
+  </si>
+  <si>
+    <t>K1_2024-2025</t>
+  </si>
+  <si>
+    <t>K2_2024-2025</t>
+  </si>
+  <si>
+    <t>Học kì 1 năm học 2023-2024</t>
+  </si>
+  <si>
+    <t>Học kì 2 năm học 2023-2024</t>
+  </si>
+  <si>
+    <t>Học kì 1 năm học 2024-2025</t>
+  </si>
+  <si>
+    <t>Học kì 2 năm học 2024-2025</t>
+  </si>
+  <si>
+    <t>Tên MH</t>
+  </si>
+  <si>
+    <t>semester_id</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3241</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3241 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">TS. Hoàng Gia Hưng PGS.TS. Bùi Thanh Tùng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Phạm Mạnh Hùng</t>
+    </r>
+  </si>
+  <si>
+    <t>BTL</t>
+  </si>
+  <si>
+    <t>TS. Hoàng Gia Hưng PGS.TS. Bùi Thanh Tùng
+TS. Phạm Mạnh Hùng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT3405</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học máy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT3405 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Tạ Việt Cường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15h30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3231</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kỹ thuật xử lý và truyền thông đa phương tiện</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3231 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Đinh Triều Dương</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(308,309)-GĐ2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8h00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT2204</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lập trình hướng đối tượng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT2204 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ThS. Nguyễn Đức Anh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(101,103,107)-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3206</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Quản trị mạng máy tính</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3206 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Bùi Trung Ninh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>309-GĐ2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VĐ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3203</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thiết kế mạch tích hợp tương tự</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3203 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">GS.TS. Chử Đức Trình
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Đỗ Quang Lộc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>107-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>POL1001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tư tưởng Hồ Chí Minh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>POL1001 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ThS. Hồ Viết Thanh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(309,310,312)-GĐ2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3241 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3051</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kỹ thuật điều khiển</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3051 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Nguyễn Thị Thanh Vân</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(101,103)-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT3217</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lập trình hệ thống</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT3217 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ThS. Phan Hoàng Anh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAT1101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xác suất thống kê</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAT1101 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Lê Phê Đô</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(301,302,303,304,3 05)-GĐ2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13h00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3144</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xử lý tín hiệu số</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3144 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Trần Thị Thúy Quỳnh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(3a,3b)-G3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HIS1001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lịch sử Đảng Cộng sản Việt Nam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HIS1001 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Dương Thị Kim Huệ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(303,304,305)-GĐ2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PHI1002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chủ nghĩa xã hội khoa học</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PHI1002 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Phạm Thị Quỳnh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(107,301)-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UET1002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kỹ năng khởi nghiệp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UET1002 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Hoàng Thị Hải Yến</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3051 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ThS. Nguyễn Thu Hằng</t>
+    </r>
+  </si>
+  <si>
+    <t>Các vấn đề hiện đại của Kỹ thuật Máy tính</t>
+  </si>
+  <si>
+    <t>Giờ thi</t>
+  </si>
+  <si>
+    <t>Thứ</t>
+  </si>
+  <si>
+    <t>Ngày thi</t>
+  </si>
+  <si>
+    <t>Mã HP</t>
+  </si>
+  <si>
+    <t>Học phần</t>
+  </si>
+  <si>
+    <t>Mã LHP</t>
+  </si>
+  <si>
+    <t>Giảng viên</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Phòng thi</t>
+  </si>
+  <si>
+    <t>HTT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3241</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Các vấn đề hiện đại của Kỹ thuật Máy tính</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3241 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">TS. Hoàng Gia Hưng PGS.TS. Bùi Thanh Tùng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Phạm Mạnh Hùng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>302-GĐ2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT3405</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học máy (môn tự chọn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT3405 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Tạ Việt Cường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>309-GĐ2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3231</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kỹ thuật xử lý và truyền thông đa phương tiện
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(môn tự chọn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3231 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Đinh Triều Dương</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>107-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT2204</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lập trình hướng đối tượng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT2204 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CN. Nguyễn Trọng Đạt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PM207-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PM202-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ThS. Nguyễn Đức Anh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3-G3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ELT3206 </t>
+  </si>
+  <si>
+    <t>Quản tri mạng máy tính</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3203</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thiết kế mạch tích hợp tương tự (môn tự chọn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3203 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">GS.TS. Chử Đức Trình
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Đỗ Xuân Lộc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>101-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>POL1001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tư tưởng Hồ Chí Minh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>POL1001 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trường KHXHNV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3241 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3051</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kỹ thuật điều khiển</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3051 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Nguyễn Thị Thanh Vân</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>301-GĐ2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT3217</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lập trình hệ thống (học tuần 1-12)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INT3217 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ThS. Phan Hoàng Anh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lập trình hệ thống (học tuần 3-11)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>KS. Đỗ Ngọc Minh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PM307-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>KS. Dương Minh Ngọc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAT1101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xác suất thống kê (môn tự chọn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAT1101 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Lê Phê Đô</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>301-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3144</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xử lý tín hiệu số (TH)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3144 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Trần Thị Thúy Quỳnh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PM201-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HIS1001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lịch sử Đảng Cộng sản Việt Nam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HIS1001 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PHI1002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chủ nghĩa xã hội khoa học</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PHI1002 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>103-G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UET1002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kỹ năng khởi nghiệp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UET1002 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS. Hoàng Thị Hải Yến</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELT3051 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ThS. Nguyễn Thu Hằng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>305-GĐ2</t>
+    </r>
+  </si>
+  <si>
+    <t>TS. Hoàng Gia Hưng
+PGS.TS. Bùi Thanh Tùng TS. Phạm Mạnh Hùng</t>
+  </si>
+  <si>
+    <t>mã HP</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>mã LMH</t>
+  </si>
+  <si>
+    <t>số SV</t>
+  </si>
+  <si>
+    <t>Tiết</t>
+  </si>
+  <si>
+    <t>Giảng đường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,13 +2722,60 @@
       <color rgb="FF555555"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F1F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -949,12 +2785,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE5F1F4"/>
+        <fgColor rgb="FFECFBD4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -977,25 +2813,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD0E3EF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD0E3EF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD0E3EF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD0E3EF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD0E3EF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD0E3EF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD0E3EF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{49BB47BA-7E18-4927-9030-445F44DB71E5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +3392,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E17" activeCellId="1" sqref="D15 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1420,66 +3482,66 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2788,7 +4850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2392CF-EBEA-424A-B0A7-A96DBE8241EA}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
@@ -2799,7 +4861,7 @@
         <v>256</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
         <v>257</v>
@@ -3542,7 +5604,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
         <v>254</v>
@@ -3656,109 +5718,2471 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC28D14-D4EC-4B9D-AB51-9AC566F97771}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08998BBE-1F77-4A16-B50E-B937EA5BE4FF}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" t="s">
         <v>257</v>
       </c>
-      <c r="D1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="3">
+      <c r="E1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>20020168</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
-      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>20020627</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3">
+        <v>37569</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>20020679</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="3">
+        <v>37510</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1">
-      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>20020684</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>20020709</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="3">
+        <v>37564</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
-    <sortCondition ref="A1:A6"/>
-  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B74C64-E5DC-48E7-AA90-BE9AC26690CE}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A59C51E-8A62-434A-B240-7DDD9C639185}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="A2" s="7">
+        <v>20020627</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3">
+        <v>37569</v>
+      </c>
+      <c r="D2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="J2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="6">
+        <v>20020627</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3">
+        <v>37569</v>
+      </c>
+      <c r="D3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="5">
+        <v>20020627</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3">
+        <v>37569</v>
+      </c>
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="6">
+        <v>20020627</v>
+      </c>
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3">
+        <v>37569</v>
+      </c>
+      <c r="D5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
+      <c r="A6" s="5">
+        <v>20020627</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="3">
+        <v>37569</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
+      <c r="A7" s="6">
+        <v>20020627</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="3">
+        <v>37569</v>
+      </c>
+      <c r="D7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="A8" s="11">
+        <v>20020627</v>
+      </c>
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="3">
+        <v>37569</v>
+      </c>
+      <c r="D8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="J8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="6">
+        <v>20020168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1">
+      <c r="A10" s="5">
+        <v>20020168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="A11" s="6">
+        <v>20020168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="A12" s="5">
+        <v>20020168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1">
+      <c r="A13" s="6">
+        <v>20020168</v>
+      </c>
+      <c r="B13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1">
+      <c r="A14" s="6">
+        <v>20020168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
+      <c r="A15" s="11">
+        <v>20020168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="J15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1">
+      <c r="A16" s="7">
+        <v>20020679</v>
+      </c>
+      <c r="B16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="3">
+        <v>37510</v>
+      </c>
+      <c r="D16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="J16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="A17" s="6">
+        <v>20020679</v>
+      </c>
+      <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="3">
+        <v>37510</v>
+      </c>
+      <c r="D17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" s="6">
+        <v>3</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="A18" s="5">
+        <v>20020679</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="3">
+        <v>37510</v>
+      </c>
+      <c r="D18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1">
+      <c r="A19" s="6">
+        <v>20020679</v>
+      </c>
+      <c r="B19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="3">
+        <v>37510</v>
+      </c>
+      <c r="D19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>3</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1">
+      <c r="A20" s="5">
+        <v>20020679</v>
+      </c>
+      <c r="B20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="3">
+        <v>37510</v>
+      </c>
+      <c r="D20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1">
+      <c r="A21" s="6">
+        <v>20020684</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1">
+      <c r="A22" s="5">
+        <v>20020684</v>
+      </c>
+      <c r="B22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1">
+      <c r="A23" s="5">
+        <v>20020684</v>
+      </c>
+      <c r="B23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="5">
+        <v>3</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1">
+      <c r="A24" s="7">
+        <v>20020709</v>
+      </c>
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="3">
+        <v>37564</v>
+      </c>
+      <c r="D24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="J24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1">
+      <c r="A25" s="6">
+        <v>20020709</v>
+      </c>
+      <c r="B25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="3">
+        <v>37564</v>
+      </c>
+      <c r="D25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" s="6">
+        <v>2</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1">
+      <c r="A26" s="5">
+        <v>20020709</v>
+      </c>
+      <c r="B26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="3">
+        <v>37564</v>
+      </c>
+      <c r="D26" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="6">
+        <v>20020709</v>
+      </c>
+      <c r="B27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="3">
+        <v>37564</v>
+      </c>
+      <c r="D27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1">
+      <c r="A28" s="5">
+        <v>20020709</v>
+      </c>
+      <c r="B28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="3">
+        <v>37564</v>
+      </c>
+      <c r="D28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" thickBot="1">
+      <c r="A29" s="6">
+        <v>20020709</v>
+      </c>
+      <c r="B29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="3">
+        <v>37564</v>
+      </c>
+      <c r="D29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>3</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4866D5AB-972F-4C04-A243-8C319F61CB58}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.6">
+      <c r="A2" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="16">
+        <v>55</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" s="21" customFormat="1">
+      <c r="A3" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="16">
+        <v>84</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="23">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="23">
+        <v>55</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="23">
+        <v>3</v>
+      </c>
+      <c r="J4" s="24">
+        <v>45279</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="23">
+        <v>3</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="23">
+        <v>123</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2</v>
+      </c>
+      <c r="J5" s="24">
+        <v>45285</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F6" s="23">
+        <v>48</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="I6" s="23">
+        <v>5</v>
+      </c>
+      <c r="J6" s="24">
+        <v>45281</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="21" customFormat="1" ht="82.8" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="26">
+        <v>3</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="26">
+        <v>47</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="26">
+        <v>3</v>
+      </c>
+      <c r="J7" s="27">
+        <v>45300</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="26">
+        <v>2</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="26">
+        <v>87</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="26">
+        <v>5</v>
+      </c>
+      <c r="J8" s="27">
+        <v>45288</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="21" customFormat="1" ht="27.6">
+      <c r="A9" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="16">
+        <v>57</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" s="21" customFormat="1" ht="69" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="26">
+        <v>3</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" s="26">
+        <v>60</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="I10" s="26">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27">
+        <v>45293</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="21" customFormat="1">
+      <c r="A11" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="16">
+        <v>3</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="16">
+        <v>70</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" s="21" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="23">
+        <v>3</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" s="23">
+        <v>135</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="I12" s="23">
+        <v>5</v>
+      </c>
+      <c r="J12" s="24">
+        <v>45288</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="26">
+        <v>4</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="26">
+        <v>42</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I13" s="26">
+        <v>3</v>
+      </c>
+      <c r="J13" s="27">
+        <v>45293</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="21" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="26">
+        <v>2</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F14" s="26">
+        <v>79</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" s="26">
+        <v>4</v>
+      </c>
+      <c r="J14" s="27">
+        <v>45294</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="21" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A15" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="26">
+        <v>2</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15" s="26">
+        <v>86</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="I15" s="26">
+        <v>5</v>
+      </c>
+      <c r="J15" s="27">
+        <v>45309</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="21" customFormat="1" ht="27.6">
+      <c r="A16" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="F16" s="16">
+        <v>78</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" s="21" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A17" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="26">
+        <v>3</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="26">
+        <v>71</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="I17" s="26">
+        <v>3</v>
+      </c>
+      <c r="J17" s="27">
+        <v>45293</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CFFBE8-6C81-4FC1-A311-5EE07192095D}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" t="s">
+        <v>504</v>
+      </c>
+      <c r="I1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="105.6">
+      <c r="A2" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="34">
+        <v>56</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="34">
+        <v>7</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="39.6">
+      <c r="A3" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="34">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="34">
+        <v>80</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="34">
+        <v>6</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="105.6">
+      <c r="A4" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="34">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" s="34">
+        <v>80</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4" s="34">
+        <v>3</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="39.6">
+      <c r="A5" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" s="34">
+        <v>3</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" s="34">
+        <v>40</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="G5" s="34">
+        <v>5</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="J5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="39.6">
+      <c r="A6" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C6" s="34">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E6" s="34">
+        <v>35</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" s="34">
+        <v>5</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="J6" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="39.6">
+      <c r="A7" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" s="34">
+        <v>3</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E7" s="34">
+        <v>40</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="G7" s="34">
+        <v>5</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="J7" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39.6">
+      <c r="A8" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="34">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" s="34">
+        <v>115</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="41.4">
+      <c r="A9" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="39">
+        <v>3</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="39">
+        <v>48</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="39">
+        <v>2</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="41.4">
+      <c r="A10" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="39">
+        <v>3</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="39">
+        <v>48</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="39">
+        <v>2</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="66">
+      <c r="A11" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" s="34">
+        <v>3</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" s="34">
+        <v>80</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="G11" s="34">
+        <v>3</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="39.6">
+      <c r="A12" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="34">
+        <v>2</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" s="34">
+        <v>90</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="G12" s="34">
+        <v>3</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39.6">
+      <c r="A13" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="34">
+        <v>2</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" s="34">
+        <v>56</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="G13" s="34">
+        <v>7</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="52.8">
+      <c r="A14" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="34">
+        <v>3</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="E14" s="34">
+        <v>56</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G14" s="34">
+        <v>7</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="52.8">
+      <c r="A15" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="34">
+        <v>3</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="E15" s="34">
+        <v>56</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="G15" s="34">
+        <v>3</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="52.8">
+      <c r="A16" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="C16" s="34">
+        <v>3</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="E16" s="34">
+        <v>28</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="G16" s="34">
+        <v>5</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="J16" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="52.8">
+      <c r="A17" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" s="34">
+        <v>3</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="E17" s="34">
+        <v>28</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="G17" s="34">
+        <v>5</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="J17" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="52.8">
+      <c r="A18" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="34">
+        <v>3</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="E18" s="34">
+        <v>160</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="G18" s="34">
+        <v>4</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="39.6">
+      <c r="A19" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="C19" s="34">
+        <v>4</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="E19" s="34">
+        <v>40</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="G19" s="34">
+        <v>5</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="52.8">
+      <c r="A20" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C20" s="34">
+        <v>2</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="E20" s="34">
+        <v>80</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="G20" s="34">
+        <v>6</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="39.6">
+      <c r="A21" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" s="34">
+        <v>2</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="E21" s="34">
+        <v>85</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="G21" s="34">
+        <v>2</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="39.6">
+      <c r="A22" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="C22" s="34">
+        <v>2</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="E22" s="34">
+        <v>90</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="G22" s="34">
+        <v>4</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="39.6">
+      <c r="A23" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C23" s="34">
+        <v>3</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="E23" s="34">
+        <v>56</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="G23" s="34">
+        <v>3</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BackEnd/src/Book1.xlsx
+++ b/BackEnd/src/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BackEnd\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6344374D-E8AC-45C6-A4C9-CC46516C829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4D2D30-AEF7-46E7-90DF-C31B9E7DE462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ngành" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="504">
   <si>
     <t>Công nghệ thông tin</t>
   </si>
@@ -1850,16 +1850,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ELT3241 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve">TS. Hoàng Gia Hưng PGS.TS. Bùi Thanh Tùng
 </t>
     </r>
@@ -1920,16 +1910,6 @@
         <family val="1"/>
       </rPr>
       <t>Học máy (môn tự chọn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>INT3405 2</t>
     </r>
   </si>
   <si>
@@ -2694,7 +2674,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -2973,7 +2953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3003,7 +2983,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3012,7 +2992,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3045,10 +3025,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3392,7 +3372,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" activeCellId="1" sqref="D15 E17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3553,7 +3533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7E6017-104F-43D7-803B-7E6A869158EA}">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
@@ -5722,7 +5702,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5844,7 +5824,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5903,8 +5883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A59C51E-8A62-434A-B240-7DDD9C639185}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6856,10 +6836,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4866D5AB-972F-4C04-A243-8C319F61CB58}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6868,9 +6848,10 @@
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -6904,8 +6885,11 @@
       <c r="K1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="27.6">
+      <c r="L1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27.6">
       <c r="A2" s="15" t="s">
         <v>330</v>
       </c>
@@ -6931,8 +6915,11 @@
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
       <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" s="21" customFormat="1">
+      <c r="L2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="21" customFormat="1">
       <c r="A3" s="15" t="s">
         <v>335</v>
       </c>
@@ -6958,8 +6945,11 @@
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
       <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="L3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="21" customFormat="1" ht="41.4" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>340</v>
       </c>
@@ -6993,8 +6983,11 @@
       <c r="K4" s="22" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="L4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="21" customFormat="1" ht="41.4" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>347</v>
       </c>
@@ -7028,8 +7021,11 @@
       <c r="K5" s="22" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="L5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="41.4" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>352</v>
       </c>
@@ -7063,8 +7059,11 @@
       <c r="K6" s="22" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="21" customFormat="1" ht="82.8" customHeight="1">
+      <c r="L6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="21" customFormat="1" ht="82.8" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>358</v>
       </c>
@@ -7098,8 +7097,11 @@
       <c r="K7" s="25" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="L7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="21" customFormat="1" ht="41.4" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>363</v>
       </c>
@@ -7133,8 +7135,11 @@
       <c r="K8" s="25" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" ht="27.6">
+      <c r="L8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="21" customFormat="1" ht="27.6">
       <c r="A9" s="15" t="s">
         <v>330</v>
       </c>
@@ -7160,8 +7165,11 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" s="21" customFormat="1" ht="69" customHeight="1">
+      <c r="L9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="69" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>369</v>
       </c>
@@ -7195,8 +7203,11 @@
       <c r="K10" s="25" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="21" customFormat="1">
+      <c r="L10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="21" customFormat="1">
       <c r="A11" s="15" t="s">
         <v>374</v>
       </c>
@@ -7222,8 +7233,11 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
       <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" s="21" customFormat="1" ht="55.2" customHeight="1">
+      <c r="L11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="21" customFormat="1" ht="55.2" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>378</v>
       </c>
@@ -7257,8 +7271,11 @@
       <c r="K12" s="22" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="21" customFormat="1" ht="41.4" customHeight="1">
+      <c r="L12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="21" customFormat="1" ht="41.4" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>384</v>
       </c>
@@ -7292,8 +7309,11 @@
       <c r="K13" s="25" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" ht="55.2" customHeight="1">
+      <c r="L13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="21" customFormat="1" ht="55.2" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>389</v>
       </c>
@@ -7327,8 +7347,11 @@
       <c r="K14" s="25" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" ht="55.2" customHeight="1">
+      <c r="L14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="21" customFormat="1" ht="55.2" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>394</v>
       </c>
@@ -7362,8 +7385,11 @@
       <c r="K15" s="25" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="21" customFormat="1" ht="27.6">
+      <c r="L15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="21" customFormat="1" ht="27.6">
       <c r="A16" s="15" t="s">
         <v>399</v>
       </c>
@@ -7389,8 +7415,11 @@
       <c r="I16" s="13"/>
       <c r="J16" s="14"/>
       <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" ht="55.2" customHeight="1">
+      <c r="L16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="21" customFormat="1" ht="55.2" customHeight="1">
       <c r="A17" s="29" t="s">
         <v>190</v>
       </c>
@@ -7423,6 +7452,9 @@
       </c>
       <c r="K17" s="25" t="s">
         <v>398</v>
+      </c>
+      <c r="L17" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7432,10 +7464,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CFFBE8-6C81-4FC1-A311-5EE07192095D}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7444,23 +7476,24 @@
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C1" t="s">
         <v>260</v>
       </c>
       <c r="D1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F1" t="s">
         <v>412</v>
@@ -7469,16 +7502,19 @@
         <v>407</v>
       </c>
       <c r="H1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="105.6">
+      <c r="K1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="39.6">
       <c r="A2" s="32" t="s">
         <v>416</v>
       </c>
@@ -7488,226 +7524,247 @@
       <c r="C2" s="34">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>418</v>
+      <c r="D2" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="E2" s="34">
         <v>56</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G2" s="34">
         <v>7</v>
       </c>
       <c r="H2" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="J2" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="K2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="32" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="39.6">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>424</v>
-      </c>
       <c r="C3" s="34">
         <v>3</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>425</v>
+      <c r="D3" s="40" t="s">
+        <v>293</v>
       </c>
       <c r="E3" s="34">
         <v>80</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G3" s="34">
         <v>6</v>
       </c>
       <c r="H3" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="26.4">
+      <c r="A4" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="105.6">
-      <c r="A4" s="32" t="s">
+      <c r="C4" s="34">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>429</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4" s="34">
-        <v>3</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>431</v>
       </c>
       <c r="E4" s="34">
         <v>80</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="34">
+        <v>3</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="G4" s="34">
-        <v>3</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="I4" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39.6">
-      <c r="A5" s="32" t="s">
+      <c r="C5" s="34">
+        <v>3</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>434</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="34">
-        <v>3</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>436</v>
       </c>
       <c r="E5" s="34">
         <v>40</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G5" s="34">
         <v>5</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J5" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="39.6">
+      <c r="K5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="34">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>434</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="C6" s="34">
-        <v>3</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>436</v>
       </c>
       <c r="E6" s="34">
         <v>35</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G6" s="34">
         <v>5</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J6" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="39.6">
+      <c r="K6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="34">
+        <v>3</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>434</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="34">
-        <v>3</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>436</v>
       </c>
       <c r="E7" s="34">
         <v>40</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G7" s="34">
         <v>5</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J7" s="34">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="39.6">
+      <c r="K7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="34">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>434</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="34">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>436</v>
       </c>
       <c r="E8" s="34">
         <v>115</v>
       </c>
       <c r="F8" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="G8" s="34">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
+      <c r="J8" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="B9" s="38" t="s">
         <v>445</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="41.4">
-      <c r="A9" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>447</v>
       </c>
       <c r="C9" s="39">
         <v>3</v>
@@ -7725,7 +7782,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>356</v>
@@ -7733,13 +7790,16 @@
       <c r="J9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="41.4">
+      <c r="K9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C10" s="39">
         <v>3</v>
@@ -7757,7 +7817,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>356</v>
@@ -7765,72 +7825,81 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="66">
+      <c r="K10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.4">
       <c r="A11" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" s="34">
+        <v>3</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>448</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="C11" s="34">
-        <v>3</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>450</v>
       </c>
       <c r="E11" s="34">
         <v>80</v>
       </c>
       <c r="F11" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="G11" s="34">
+        <v>3</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="G11" s="34">
-        <v>3</v>
-      </c>
-      <c r="H11" s="32" t="s">
+      <c r="J11" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>453</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>455</v>
       </c>
       <c r="C12" s="34">
         <v>2</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E12" s="34">
         <v>90</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G12" s="34">
         <v>3</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39.6">
+        <v>421</v>
+      </c>
+      <c r="K12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="39.6">
       <c r="A13" s="32" t="s">
         <v>416</v>
       </c>
@@ -7841,345 +7910,378 @@
         <v>2</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E13" s="34">
         <v>56</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G13" s="34">
         <v>7</v>
       </c>
       <c r="H13" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="I13" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="52.8">
-      <c r="A14" s="32" t="s">
+      <c r="C14" s="34">
+        <v>3</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>460</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="C14" s="34">
-        <v>3</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>462</v>
       </c>
       <c r="E14" s="34">
         <v>56</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G14" s="34">
         <v>7</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I14" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="52.8">
-      <c r="A15" s="32" t="s">
+      <c r="C15" s="34">
+        <v>3</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>465</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="C15" s="34">
-        <v>3</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>467</v>
       </c>
       <c r="E15" s="34">
         <v>56</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G15" s="34">
         <v>3</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="52.8">
+        <v>421</v>
+      </c>
+      <c r="K15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="34">
+        <v>3</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>465</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="C16" s="34">
-        <v>3</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>467</v>
       </c>
       <c r="E16" s="34">
         <v>28</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G16" s="34">
         <v>5</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J16" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="52.8">
+      <c r="K16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="34">
+        <v>3</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>465</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="C17" s="34">
-        <v>3</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>467</v>
       </c>
       <c r="E17" s="34">
         <v>28</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G17" s="34">
         <v>5</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J17" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="52.8">
+      <c r="K17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C18" s="34">
+        <v>3</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>473</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="C18" s="34">
-        <v>3</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>475</v>
       </c>
       <c r="E18" s="34">
         <v>160</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G18" s="34">
         <v>4</v>
       </c>
       <c r="H18" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>478</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="39.6">
-      <c r="A19" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>480</v>
       </c>
       <c r="C19" s="34">
         <v>4</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E19" s="34">
         <v>40</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G19" s="34">
         <v>5</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I19" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>483</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="52.8">
-      <c r="A20" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>485</v>
       </c>
       <c r="C20" s="34">
         <v>2</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E20" s="34">
         <v>80</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G20" s="34">
         <v>6</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="39.6">
+        <v>421</v>
+      </c>
+      <c r="K20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="32" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C21" s="34">
         <v>2</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E21" s="34">
         <v>85</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G21" s="34">
         <v>2</v>
       </c>
       <c r="H21" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>491</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="39.6">
-      <c r="A22" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>493</v>
       </c>
       <c r="C22" s="34">
         <v>2</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E22" s="34">
         <v>90</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G22" s="34">
         <v>4</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="39.6">
+        <v>421</v>
+      </c>
+      <c r="K22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C23" s="34">
         <v>3</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E23" s="34">
         <v>56</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G23" s="34">
         <v>3</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="K23" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/src/Book1.xlsx
+++ b/BackEnd/src/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BackEnd\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4D2D30-AEF7-46E7-90DF-C31B9E7DE462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1540AD-8A2B-46D4-B2C0-E694FFF46956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
+    <workbookView xWindow="1380" yWindow="1404" windowWidth="21000" windowHeight="10572" firstSheet="2" activeTab="7" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ngành" sheetId="1" r:id="rId1"/>
@@ -5824,7 +5824,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5883,8 +5883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A59C51E-8A62-434A-B240-7DDD9C639185}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6838,8 +6838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4866D5AB-972F-4C04-A243-8C319F61CB58}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/BackEnd/src/Book1.xlsx
+++ b/BackEnd/src/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BackEnd\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1540AD-8A2B-46D4-B2C0-E694FFF46956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5EA7D1-E376-4531-89B5-B9568CA7562D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1404" windowWidth="21000" windowHeight="10572" firstSheet="2" activeTab="7" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
+    <workbookView xWindow="1380" yWindow="1404" windowWidth="21000" windowHeight="10572" firstSheet="2" activeTab="3" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ngành" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Registration" sheetId="8" r:id="rId7"/>
     <sheet name="Lịch thi" sheetId="10" r:id="rId8"/>
     <sheet name="Lịch học" sheetId="11" r:id="rId9"/>
+    <sheet name="required" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="507">
   <si>
     <t>Công nghệ thông tin</t>
   </si>
@@ -2667,6 +2668,15 @@
   </si>
   <si>
     <t>Giảng đường</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>prerequisite</t>
+  </si>
+  <si>
+    <t>INT2207</t>
   </si>
 </sst>
 </file>
@@ -3529,6 +3539,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5508A8-4C90-4E18-92DF-A146813EE613}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4.2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>5.2</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>5.3</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5.4</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7E6017-104F-43D7-803B-7E6A869158EA}">
   <dimension ref="A1:C116"/>
@@ -4828,15 +4964,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2392CF-EBEA-424A-B0A7-A96DBE8241EA}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>256</v>
       </c>
@@ -4846,8 +4985,11 @@
       <c r="C1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4858,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4868,8 +5010,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4880,7 +5025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4891,7 +5036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4902,7 +5047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4913,7 +5058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -4924,7 +5069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>242</v>
       </c>
@@ -4935,7 +5080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4946,7 +5091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4957,7 +5102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -4967,8 +5112,11 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -4979,7 +5127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -4989,8 +5137,11 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -5001,7 +5152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5012,7 +5163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -5022,8 +5173,11 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -5033,8 +5187,11 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -5044,8 +5201,11 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -5055,8 +5215,11 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -5066,8 +5229,11 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -5077,8 +5243,11 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -5088,8 +5257,11 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -5100,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -5111,7 +5283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -5122,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -5133,7 +5305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -5143,8 +5315,11 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -5154,8 +5329,11 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -5165,8 +5343,11 @@
       <c r="C30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -5176,8 +5357,11 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -5187,8 +5371,11 @@
       <c r="C32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -5199,7 +5386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5209,8 +5396,11 @@
       <c r="C34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>186</v>
       </c>
@@ -5220,8 +5410,11 @@
       <c r="C35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -5231,8 +5424,11 @@
       <c r="C36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>188</v>
       </c>
@@ -5242,8 +5438,11 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -5253,8 +5452,11 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -5264,8 +5466,11 @@
       <c r="C39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -5276,7 +5481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>196</v>
       </c>
@@ -5286,8 +5491,11 @@
       <c r="C41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>244</v>
       </c>
@@ -5297,8 +5505,11 @@
       <c r="C42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -5308,8 +5519,11 @@
       <c r="C43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -5320,7 +5534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -5331,7 +5545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -5342,7 +5556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -5353,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -5364,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -5374,8 +5588,11 @@
       <c r="C49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>210</v>
       </c>
@@ -5386,7 +5603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -5396,8 +5613,11 @@
       <c r="C51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>214</v>
       </c>
@@ -5407,8 +5627,11 @@
       <c r="C52" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -5418,8 +5641,11 @@
       <c r="C53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -5429,8 +5655,11 @@
       <c r="C54" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -5441,7 +5670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -5451,8 +5680,11 @@
       <c r="C56" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -5463,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -5474,7 +5706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>226</v>
       </c>
@@ -5485,7 +5717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -5496,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>230</v>
       </c>
@@ -5507,7 +5739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -5518,7 +5750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>232</v>
       </c>
@@ -5529,7 +5761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>234</v>
       </c>
@@ -5572,8 +5804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186B8DCD-DC2F-4355-B739-99F84126DF83}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6838,7 +7070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4866D5AB-972F-4C04-A243-8C319F61CB58}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>

--- a/BackEnd/src/Book1.xlsx
+++ b/BackEnd/src/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BackEnd\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5EA7D1-E376-4531-89B5-B9568CA7562D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EC53B2-5BC0-4A6C-AE71-64E380C015AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1404" windowWidth="21000" windowHeight="10572" firstSheet="2" activeTab="3" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
+    <workbookView xWindow="1380" yWindow="1404" windowWidth="21000" windowHeight="10572" firstSheet="1" activeTab="2" xr2:uid="{FBC07B8B-4F86-43B9-A3CB-38C7923DBFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ngành" sheetId="1" r:id="rId1"/>
@@ -3669,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7E6017-104F-43D7-803B-7E6A869158EA}">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4966,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2392CF-EBEA-424A-B0A7-A96DBE8241EA}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5804,7 +5804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186B8DCD-DC2F-4355-B739-99F84126DF83}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
